--- a/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
+++ b/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
+++ b/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
+++ b/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
+++ b/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1029,7 +1072,97 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1045,14 +1178,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1194,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
+++ b/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -1178,7 +1311,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1194,14 +1327,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1343,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
+++ b/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19</v>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1444,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -1327,7 +1460,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1343,14 +1476,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7">
@@ -1359,13 +1492,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
+++ b/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002379</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0465</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002380</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信香港中小盘股票（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0465</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -650,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>84.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0909</t>
+          <t>0.0700</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -688,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>84.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0909</t>
+          <t>0.0700</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +758,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -782,26 +798,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.45</t>
+          <t>86.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1061</t>
+          <t>0.0938</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -820,26 +836,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.45</t>
+          <t>86.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1061</t>
+          <t>0.0938</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +890,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -914,22 +930,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.39</t>
+          <t>90.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1051</t>
+          <t>0.1182</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -952,22 +968,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.39</t>
+          <t>90.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1051</t>
+          <t>0.1182</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1006,7 +1022,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1046,22 +1062,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1182</t>
+          <t>0.1051</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1084,22 +1100,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1182</t>
+          <t>0.1051</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1138,7 +1154,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1178,26 +1194,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.48</t>
+          <t>95.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0938</t>
+          <t>0.1061</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1216,26 +1232,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.48</t>
+          <t>95.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0938</t>
+          <t>0.1061</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1286,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1310,26 +1326,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0700</t>
+          <t>0.0909</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1348,26 +1364,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0700</t>
+          <t>0.0909</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1381,144 +1397,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.09</v>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
+++ b/数据整理/stocks/其他/KYG3066L1014-新奥能源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +553,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>78.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0700</t>
+          <t>0.0599</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>78.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0700</t>
+          <t>0.0599</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -798,26 +815,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.48</t>
+          <t>84.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0938</t>
+          <t>0.0700</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -836,26 +853,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.48</t>
+          <t>84.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0938</t>
+          <t>0.0700</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -930,26 +947,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>86.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1182</t>
+          <t>0.0938</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -968,26 +985,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>86.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1182</t>
+          <t>0.0938</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1039,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1062,22 +1079,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.39</t>
+          <t>90.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1051</t>
+          <t>0.1182</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1100,22 +1117,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.39</t>
+          <t>90.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1051</t>
+          <t>0.1182</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1194,26 +1211,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.45</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1061</t>
+          <t>0.1051</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1232,26 +1249,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.45</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1061</t>
+          <t>0.1051</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1326,26 +1343,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>95.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0909</t>
+          <t>0.1061</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1364,26 +1381,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>95.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0909</t>
+          <t>0.1061</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1392,6 +1409,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
